--- a/model.xlsx
+++ b/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B1D6DB-61B9-49ED-8B5B-377B6CC9F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C683353-DE50-4EC0-98A1-6D3A95B3D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
